--- a/viongJewellery/산출물/코드.xlsx
+++ b/viongJewellery/산출물/코드.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,86 @@
   </si>
   <si>
     <t>귀걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금속종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT00101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT00102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT00103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT00104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT00105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18K 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14K 금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +723,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -765,39 +845,123 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,ETC01,ETC02,USE_YN) VALUES('','','','','','');</v>
+        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,ETC01,ETC02,USE_YN) VALUES('MT001','금속종류','','','','Y');</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,ETC01,ETC02,USE_YN) VALUES('','','','','','');</v>
+        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,SORT,ETC01,ETC02,USE_YN) VALUES('MT00101','순금','MT001',1,'','','Y');</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,ETC01,ETC02,USE_YN) VALUES('','','','','','');</v>
+        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,SORT,ETC01,ETC02,USE_YN) VALUES('MT00102','18K 금','MT001',2,'','','Y');</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,ETC01,ETC02,USE_YN) VALUES('','','','','','');</v>
+        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,SORT,ETC01,ETC02,USE_YN) VALUES('MT00103','14K 금','MT001',3,'','','Y');</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,ETC01,ETC02,USE_YN) VALUES('','','','','','');</v>
+        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,SORT,ETC01,ETC02,USE_YN) VALUES('MT00104','백금','MT001',4,'','','Y');</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,ETC01,ETC02,USE_YN) VALUES('','','','','','');</v>
+        <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,SORT,ETC01,ETC02,USE_YN) VALUES('MT00105','은','MT001',5,'','','Y');</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2669,7 +2833,7 @@
     </row>
     <row r="322" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H322" s="3" t="str">
-        <f t="shared" ref="H322:H385" si="5">"INSERT INTO CODE(CODE,CODE_NAME,UP_CODE"&amp;IF(ISBLANK(D322),"",",SORT")&amp;",ETC01,ETC02,USE_YN) VALUES('"&amp;B322&amp;"','"&amp;C322&amp;"','"&amp;A322&amp;"'"&amp;IF(ISBLANK(D322),"",","&amp;D322)&amp;",'"&amp;E322&amp;"','"&amp;F322&amp;"','"&amp;G322&amp;"');"</f>
+        <f t="shared" ref="H322:H371" si="5">"INSERT INTO CODE(CODE,CODE_NAME,UP_CODE"&amp;IF(ISBLANK(D322),"",",SORT")&amp;",ETC01,ETC02,USE_YN) VALUES('"&amp;B322&amp;"','"&amp;C322&amp;"','"&amp;A322&amp;"'"&amp;IF(ISBLANK(D322),"",","&amp;D322)&amp;",'"&amp;E322&amp;"','"&amp;F322&amp;"','"&amp;G322&amp;"');"</f>
         <v>INSERT INTO CODE(CODE,CODE_NAME,UP_CODE,ETC01,ETC02,USE_YN) VALUES('','','','','','');</v>
       </c>
     </row>
